--- a/Coding4/Output_1001706320.xlsx
+++ b/Coding4/Output_1001706320.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tyler\cse3318\Coding4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tyler/cse3318/Coding4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B29AF7D-F3DE-4273-9682-7B557E333EEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0542F504-29B6-DE48-AD68-C6459B3A3939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2340" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{4A00EAFC-8136-4C01-985A-E9A0D427D15A}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" activeTab="1" xr2:uid="{4A00EAFC-8136-4C01-985A-E9A0D427D15A}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -661,21 +661,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E13FA7EA-335B-484F-A557-606D409DE0A3}">
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5" bestFit="1" customWidth="1"/>
     <col min="9" max="11" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="6"/>
       <c r="B1" s="12" t="s">
         <v>12</v>
@@ -690,7 +691,7 @@
       <c r="I1" s="3"/>
       <c r="J1" s="5"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
@@ -713,7 +714,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="9">
         <v>1024</v>
       </c>
@@ -736,7 +737,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="9">
         <v>10000</v>
       </c>
@@ -759,7 +760,7 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="9">
         <v>50000</v>
       </c>
@@ -782,7 +783,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="9">
         <v>100000</v>
       </c>
@@ -805,7 +806,7 @@
         <v>18000</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="9">
         <v>500000</v>
       </c>
@@ -828,7 +829,7 @@
         <v>102200</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="9">
         <v>1000000</v>
       </c>
@@ -851,7 +852,7 @@
         <v>212500</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="9">
         <v>2000000</v>
       </c>
@@ -874,7 +875,7 @@
         <v>439100</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="B12" s="11" t="s">
         <v>13</v>
@@ -891,7 +892,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
     </row>
-    <row r="13" spans="1:11" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="96" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="8" t="s">
         <v>8</v>
@@ -924,7 +925,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -959,7 +960,7 @@
         <v>25798400</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>3</v>
       </c>
@@ -994,7 +995,7 @@
         <v>6800</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>4</v>
       </c>
@@ -1029,44 +1030,44 @@
         <v>11000</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C19" s="10"/>
       <c r="H19" s="10"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29"/>
     </row>
   </sheetData>
@@ -1085,13 +1086,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AAFE768-AA87-41D6-9C80-D6513BE5FBC3}">
   <dimension ref="A1:O16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" workbookViewId="0">
       <selection sqref="A1:O16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="15" t="s">
         <v>14</v>
       </c>
@@ -1110,7 +1111,7 @@
       <c r="N1" s="16"/>
       <c r="O1" s="17"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" s="18"/>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1127,7 +1128,7 @@
       <c r="N2" s="19"/>
       <c r="O2" s="20"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" s="18"/>
       <c r="B3" s="19"/>
       <c r="C3" s="19"/>
@@ -1144,7 +1145,7 @@
       <c r="N3" s="19"/>
       <c r="O3" s="20"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" s="18"/>
       <c r="B4" s="19"/>
       <c r="C4" s="19"/>
@@ -1161,7 +1162,7 @@
       <c r="N4" s="19"/>
       <c r="O4" s="20"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
       <c r="C5" s="19"/>
@@ -1178,7 +1179,7 @@
       <c r="N5" s="19"/>
       <c r="O5" s="20"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
       <c r="C6" s="19"/>
@@ -1195,7 +1196,7 @@
       <c r="N6" s="19"/>
       <c r="O6" s="20"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" s="18"/>
       <c r="B7" s="19"/>
       <c r="C7" s="19"/>
@@ -1212,7 +1213,7 @@
       <c r="N7" s="19"/>
       <c r="O7" s="20"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" s="18"/>
       <c r="B8" s="19"/>
       <c r="C8" s="19"/>
@@ -1229,7 +1230,7 @@
       <c r="N8" s="19"/>
       <c r="O8" s="20"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" s="18"/>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -1246,7 +1247,7 @@
       <c r="N9" s="19"/>
       <c r="O9" s="20"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" s="18"/>
       <c r="B10" s="19"/>
       <c r="C10" s="19"/>
@@ -1263,7 +1264,7 @@
       <c r="N10" s="19"/>
       <c r="O10" s="20"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" s="18"/>
       <c r="B11" s="19"/>
       <c r="C11" s="19"/>
@@ -1280,7 +1281,7 @@
       <c r="N11" s="19"/>
       <c r="O11" s="20"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" s="18"/>
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
@@ -1297,7 +1298,7 @@
       <c r="N12" s="19"/>
       <c r="O12" s="20"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="18"/>
       <c r="B13" s="19"/>
       <c r="C13" s="19"/>
@@ -1314,7 +1315,7 @@
       <c r="N13" s="19"/>
       <c r="O13" s="20"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" s="18"/>
       <c r="B14" s="19"/>
       <c r="C14" s="19"/>
@@ -1331,7 +1332,7 @@
       <c r="N14" s="19"/>
       <c r="O14" s="20"/>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" s="18"/>
       <c r="B15" s="19"/>
       <c r="C15" s="19"/>
@@ -1348,7 +1349,7 @@
       <c r="N15" s="19"/>
       <c r="O15" s="20"/>
     </row>
-    <row r="16" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="22"/>
       <c r="C16" s="22"/>
@@ -1374,57 +1375,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TeamsChannelId xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Math_Settings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Owner xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Owner>
-    <AppVersion xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Invited_Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <IsNotebookLocked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <NotebookType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <FolderType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Teachers>
-    <Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Students>
-    <Student_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
-      <UserInfo>
-        <DisplayName/>
-        <AccountId xsi:nil="true"/>
-        <AccountType/>
-      </UserInfo>
-    </Student_Groups>
-    <LMS_Mappings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Invited_Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Is_Collaboration_Space_Locked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Self_Registration_Enabled xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Has_Teacher_Only_SectionGroup xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <CultureName xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Distribution_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <DefaultSectionNames xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-    <Templates xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A83DF786F562EA48B90A14E3A17B1752" ma:contentTypeVersion="32" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="04435168465a9d3ffb693e5aa24447f9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="edc47199-8429-4a30-a8c5-19487a2cfb84" xmlns:ns4="7c488e8a-7c9d-4a25-ac1a-3919c0dde376" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7c6e2ff4c33b501079b66304ab8bdb54" ns3:_="" ns4:_="">
     <xsd:import namespace="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
@@ -1829,6 +1779,57 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TeamsChannelId xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Math_Settings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Owner xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Owner>
+    <AppVersion xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Invited_Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <IsNotebookLocked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <NotebookType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <FolderType xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Teachers xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Teachers>
+    <Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Students>
+    <Student_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Student_Groups>
+    <LMS_Mappings xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Invited_Students xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Is_Collaboration_Space_Locked xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Self_Registration_Enabled xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Has_Teacher_Only_SectionGroup xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <CultureName xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Distribution_Groups xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <DefaultSectionNames xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+    <Templates xmlns="edc47199-8429-4a30-a8c5-19487a2cfb84" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1839,23 +1840,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8FF13-9F74-4FB9-A71F-5902366276EA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="7c488e8a-7c9d-4a25-ac1a-3919c0dde376"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1909F26-CDD3-44B9-8D36-BB8972E78A9E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1874,6 +1858,23 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61C8FF13-9F74-4FB9-A71F-5902366276EA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="7c488e8a-7c9d-4a25-ac1a-3919c0dde376"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="edc47199-8429-4a30-a8c5-19487a2cfb84"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D2680113-FCEE-4B54-AA0E-217FBB37140B}">
   <ds:schemaRefs>
